--- a/ConvertedEqual/Oklahoma_Converted.xlsx
+++ b/ConvertedEqual/Oklahoma_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="276">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -807,6 +807,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA221"/>
+  <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1551,7 +1587,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1563,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -2979,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3062,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3145,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3228,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -3311,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3394,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -3477,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -3560,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -3643,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -3726,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -3809,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -3892,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3975,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -4058,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -4141,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -4224,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -4307,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -4390,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4473,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4556,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -4639,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -4722,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4805,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -4888,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4971,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -5054,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -5137,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -5220,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -5303,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -5386,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -5469,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5552,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -5635,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -5718,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -5801,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -5884,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5967,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -6050,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -6133,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.7692307692230769</v>
+        <v>0.7499999999916667</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -6216,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.5538461538384615</v>
+        <v>0.5166666666583333</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -6299,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.5538461538384615</v>
+        <v>0.5166666666583333</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -6382,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.5538461538384615</v>
+        <v>0.5166666666583333</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -6465,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.5538461538384615</v>
+        <v>0.5166666666583333</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -6548,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.5538461538384615</v>
+        <v>0.5166666666583333</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -6631,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.5538461538384615</v>
+        <v>0.5166666666583333</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -6714,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.5538461538384615</v>
+        <v>0.5166666666583333</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -6797,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -6880,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -6963,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -7046,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -7129,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="AA75">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="76" spans="1:27">
@@ -7212,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -7295,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="78" spans="1:27">
@@ -7378,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="79" spans="1:27">
@@ -7461,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -7544,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -7627,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -7710,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -7793,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -7876,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -7959,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -8042,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -8125,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -8208,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -8291,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -8374,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -8457,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -8540,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -8623,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -8706,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -8789,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -8872,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -8955,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -9038,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:27">
@@ -9121,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="AA99">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:27">
@@ -9204,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:27">
@@ -9287,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -9370,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -9453,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:27">
@@ -9536,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:27">
@@ -9619,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="106" spans="1:27">
@@ -9702,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:27">
@@ -9785,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:27">
@@ -9868,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:27">
@@ -9951,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:27">
@@ -10034,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:27">
@@ -10117,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="AA111">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:27">
@@ -10200,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="AA112">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -10283,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -10366,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -10449,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -10532,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:27">
@@ -10615,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:27">
@@ -10698,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:27">
@@ -10781,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="AA119">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:27">
@@ -10864,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="AA120">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:27">
@@ -10947,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="AA121">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:27">
@@ -11030,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="AA122">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:27">
@@ -11113,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:27">
@@ -11196,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:27">
@@ -11279,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:27">
@@ -11362,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="AA126">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:27">
@@ -11445,7 +11481,7 @@
         <v>0</v>
       </c>
       <c r="AA127">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:27">
@@ -11528,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -11611,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -11694,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:27">
@@ -11777,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -11860,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:27">
@@ -11943,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="AA133">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:27">
@@ -12026,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="AA134">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:27">
@@ -12109,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="AA135">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:27">
@@ -12192,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:27">
@@ -12275,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="AA137">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:27">
@@ -12358,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="AA138">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:27">
@@ -12441,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:27">
@@ -12524,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="AA140">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:27">
@@ -12607,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:27">
@@ -12690,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:27">
@@ -12773,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:27">
@@ -12856,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -12939,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="146" spans="1:27">
@@ -13022,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="AA146">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:27">
@@ -13105,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="AA147">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:27">
@@ -13188,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="AA148">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:27">
@@ -13271,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="AA149">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:27">
@@ -13354,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA150">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:27">
@@ -13437,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="AA151">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:27">
@@ -13520,7 +13556,7 @@
         <v>0</v>
       </c>
       <c r="AA152">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:27">
@@ -13603,7 +13639,7 @@
         <v>0</v>
       </c>
       <c r="AA153">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:27">
@@ -13686,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="AA154">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:27">
@@ -13769,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AA155">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:27">
@@ -13852,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="AA156">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:27">
@@ -13935,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="AA157">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:27">
@@ -14018,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AA158">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:27">
@@ -14101,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="AA159">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:27">
@@ -14184,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="AA160">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:27">
@@ -14267,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:27">
@@ -14350,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="AA162">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:27">
@@ -14433,7 +14469,7 @@
         <v>0</v>
       </c>
       <c r="AA163">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:27">
@@ -14516,7 +14552,7 @@
         <v>0</v>
       </c>
       <c r="AA164">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:27">
@@ -14599,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="AA165">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:27">
@@ -14682,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="AA166">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:27">
@@ -14765,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="AA167">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:27">
@@ -14848,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="AA168">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:27">
@@ -14931,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="AA169">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:27">
@@ -15014,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="AA170">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:27">
@@ -15097,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="AA171">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:27">
@@ -15180,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:27">
@@ -15263,7 +15299,7 @@
         <v>0</v>
       </c>
       <c r="AA173">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:27">
@@ -15346,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="AA174">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:27">
@@ -15429,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="AA175">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:27">
@@ -15512,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="AA176">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:27">
@@ -15595,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:27">
@@ -15678,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="AA178">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:27">
@@ -15761,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -15844,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="AA180">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -15927,7 +15963,7 @@
         <v>0</v>
       </c>
       <c r="AA181">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:27">
@@ -16010,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:27">
@@ -16093,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="AA183">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:27">
@@ -16176,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="AA184">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -16259,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="AA185">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:27">
@@ -16342,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="AA186">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:27">
@@ -16425,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="AA187">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:27">
@@ -16508,7 +16544,7 @@
         <v>0</v>
       </c>
       <c r="AA188">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:27">
@@ -16591,7 +16627,7 @@
         <v>0</v>
       </c>
       <c r="AA189">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:27">
@@ -16674,7 +16710,7 @@
         <v>0</v>
       </c>
       <c r="AA190">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:27">
@@ -16757,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="AA191">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:27">
@@ -16840,7 +16876,7 @@
         <v>0</v>
       </c>
       <c r="AA192">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:27">
@@ -16923,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="AA193">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:27">
@@ -17006,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="AA194">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:27">
@@ -17089,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="AA195">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:27">
@@ -17172,7 +17208,7 @@
         <v>0</v>
       </c>
       <c r="AA196">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:27">
@@ -17255,7 +17291,7 @@
         <v>0</v>
       </c>
       <c r="AA197">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:27">
@@ -17338,7 +17374,7 @@
         <v>0</v>
       </c>
       <c r="AA198">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:27">
@@ -17421,7 +17457,7 @@
         <v>0</v>
       </c>
       <c r="AA199">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:27">
@@ -17504,7 +17540,7 @@
         <v>0</v>
       </c>
       <c r="AA200">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:27">
@@ -17587,7 +17623,7 @@
         <v>0</v>
       </c>
       <c r="AA201">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:27">
@@ -17670,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="AA202">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:27">
@@ -17753,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="AA203">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:27">
@@ -17836,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="AA204">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:27">
@@ -17919,7 +17955,7 @@
         <v>0</v>
       </c>
       <c r="AA205">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:27">
@@ -18002,7 +18038,7 @@
         <v>0</v>
       </c>
       <c r="AA206">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:27">
@@ -18085,7 +18121,7 @@
         <v>0</v>
       </c>
       <c r="AA207">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:27">
@@ -18168,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="AA208">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -18251,7 +18287,7 @@
         <v>0</v>
       </c>
       <c r="AA209">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:27">
@@ -18334,7 +18370,7 @@
         <v>0</v>
       </c>
       <c r="AA210">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:27">
@@ -18417,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="AA211">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:27">
@@ -18500,7 +18536,7 @@
         <v>0</v>
       </c>
       <c r="AA212">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:27">
@@ -18583,7 +18619,7 @@
         <v>0</v>
       </c>
       <c r="AA213">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:27">
@@ -18666,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="AA214">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:27">
@@ -18749,7 +18785,7 @@
         <v>0</v>
       </c>
       <c r="AA215">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:27">
@@ -18832,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="AA216">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:27">
@@ -18915,7 +18951,7 @@
         <v>0</v>
       </c>
       <c r="AA217">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:27">
@@ -18998,7 +19034,7 @@
         <v>0</v>
       </c>
       <c r="AA218">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:27">
@@ -19081,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="AA219">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:27">
@@ -19164,7 +19200,7 @@
         <v>0</v>
       </c>
       <c r="AA220">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:27">
@@ -19247,7 +19283,1003 @@
         <v>0</v>
       </c>
       <c r="AA221">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
+      <c r="A222" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>1</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
+      <c r="A223" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>1</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
+      <c r="A224" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>1</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>1</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>1</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>1</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>1</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
+      <c r="A230" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>1</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
+      <c r="A231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
+      <c r="A232" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>1</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
+      <c r="A233" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>1</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0.1666666666666667</v>
       </c>
     </row>
   </sheetData>
